--- a/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data_A4_Tanya_output_data_for_Ozon.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Fill_data_A4_Tanya_output_data_for_Ozon.xlsx
@@ -7154,12 +7154,12 @@
     <row r="4" ht="13.8" customHeight="1" s="23">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме девочка в цветах и фонарях ночь</t>
+          <t>Термонаклейка Аниме девочка с мыльными пузырями</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: Аниме девочка в цветах и фонарях ночь</t>
+          <t>Термонаклейка для одежды: Аниме девочка с мыльными пузырями</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7198,12 +7198,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/anime_bubles_a_vert_1.jpg</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/anime_bubles_b_vert_1.jpg</t>
         </is>
       </c>
       <c r="O4" s="40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/anime_bubles_a_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/anime_bubles_a_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/anime_bubles_a_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/anime_bubles_a_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/instruction_A4.jpg;</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/anime_bubles_b_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/anime_bubles_b_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/anime_bubles_b_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/anime_bubles_b_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Аниме девочка в цветах и фонарях ночь</t>
+          <t>Аниме девочка с мыльными пузырями</t>
         </is>
       </c>
       <c r="W4" s="30" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Термонаклейка Аниме девочка в цветах и фонарях ночь - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+          <t xml:space="preserve">Термонаклейка Аниме девочка с мыльными пузырями - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </t>
         </is>
       </c>
@@ -7249,268 +7249,2499 @@
       <c r="AF4" s="22" t="n"/>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/anime_bubles_a_vert_color.jpg</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/anime_bubles_b_vert_color.jpg</t>
         </is>
       </c>
       <c r="AH4" s="22" t="n"/>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме девочка в цветах и фонарях ночь</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме девочка с мыльными пузырями</t>
         </is>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="23">
-      <c r="F5" s="30" t="n"/>
-      <c r="G5" s="22" t="n"/>
-      <c r="U5" s="22" t="n"/>
-      <c r="W5" s="30" t="n"/>
-      <c r="Z5" s="22" t="n"/>
-      <c r="AC5" s="22" t="n"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Чёрная кошка с узорами на фоне луны</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>349</v>
+      </c>
+      <c r="E5" t="n">
+        <v>524</v>
+      </c>
+      <c r="F5" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G5" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="n">
+        <v>210</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>300</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_black_yellow_a_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_black_yellow_a_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_black_yellow_a_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_black_yellow_a_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_black_yellow_a_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U5" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Чёрная кошка с узорами на фоне луны</t>
+        </is>
+      </c>
+      <c r="W5" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Чёрная кошка с узорами на фоне луны - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z5" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC5" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE5" s="22" t="n"/>
       <c r="AF5" s="22" t="n"/>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_black_yellow_a_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH5" s="22" t="n"/>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Чёрная кошка с узорами на фоне луны</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="23">
-      <c r="F6" s="30" t="n"/>
-      <c r="G6" s="22" t="n"/>
-      <c r="U6" s="22" t="n"/>
-      <c r="W6" s="30" t="n"/>
-      <c r="Z6" s="22" t="n"/>
-      <c r="AC6" s="22" t="n"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка-кошка с чёрным котом поцелуй</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Девушка-кошка с чёрным котом поцелуй</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>349</v>
+      </c>
+      <c r="E6" t="n">
+        <v>524</v>
+      </c>
+      <c r="F6" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G6" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>210</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>300</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_girl_kiss_a_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_girl_kiss_a_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_girl_kiss_a_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_girl_kiss_a_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_girl_kiss_a_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U6" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Девушка-кошка с чёрным котом поцелуй</t>
+        </is>
+      </c>
+      <c r="W6" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Девушка-кошка с чёрным котом поцелуй - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z6" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC6" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE6" s="22" t="n"/>
       <c r="AF6" s="22" t="n"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_girl_kiss_a_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH6" s="22" t="n"/>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка-кошка с чёрным котом поцелуй</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="23">
-      <c r="F7" s="30" t="n"/>
-      <c r="G7" s="22" t="n"/>
-      <c r="U7" s="22" t="n"/>
-      <c r="W7" s="30" t="n"/>
-      <c r="Z7" s="22" t="n"/>
-      <c r="AC7" s="22" t="n"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Кошка розово-фиолетовая крупный план</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>349</v>
+      </c>
+      <c r="E7" t="n">
+        <v>524</v>
+      </c>
+      <c r="F7" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G7" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="n">
+        <v>210</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>300</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_pink_head_closeup_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_pink_head_closeup_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_pink_head_closeup_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_pink_head_closeup_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_pink_head_closeup_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U7" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Кошка розово-фиолетовая крупный план</t>
+        </is>
+      </c>
+      <c r="W7" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Кошка розово-фиолетовая крупный план - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z7" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC7" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE7" s="22" t="n"/>
       <c r="AF7" s="22" t="n"/>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_pink_head_closeup_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH7" s="22" t="n"/>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кошка розово-фиолетовая крупный план</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="23">
-      <c r="F8" s="30" t="n"/>
-      <c r="G8" s="22" t="n"/>
-      <c r="U8" s="22" t="n"/>
-      <c r="W8" s="30" t="n"/>
-      <c r="Z8" s="22" t="n"/>
-      <c r="AC8" s="22" t="n"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрный кот на закате у моря и цветов</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Чёрный кот на закате у моря и цветов</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>349</v>
+      </c>
+      <c r="E8" t="n">
+        <v>524</v>
+      </c>
+      <c r="F8" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G8" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>210</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>300</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_sunset_yellow_poppy_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_sunset_yellow_poppy_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_sunset_yellow_poppy_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_sunset_yellow_poppy_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_sunset_yellow_poppy_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U8" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Чёрный кот на закате у моря и цветов</t>
+        </is>
+      </c>
+      <c r="W8" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Чёрный кот на закате у моря и цветов - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z8" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC8" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE8" s="22" t="n"/>
       <c r="AF8" s="22" t="n"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/cat_sunset_yellow_poppy_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH8" s="22" t="n"/>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Чёрный кот на закате у моря и цветов</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="23">
-      <c r="F9" s="30" t="n"/>
-      <c r="G9" s="22" t="n"/>
-      <c r="U9" s="22" t="n"/>
-      <c r="W9" s="30" t="n"/>
-      <c r="Z9" s="22" t="n"/>
-      <c r="AC9" s="22" t="n"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Термонаклейка Ловец снов акварель</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Ловец снов акварель</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>349</v>
+      </c>
+      <c r="E9" t="n">
+        <v>524</v>
+      </c>
+      <c r="F9" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G9" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="n">
+        <v>210</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>300</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/feathers_asd_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/feathers_asd_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/feathers_asd_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/feathers_asd_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/feathers_asd_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U9" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ловец снов акварель</t>
+        </is>
+      </c>
+      <c r="W9" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Ловец снов акварель - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z9" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC9" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE9" s="22" t="n"/>
       <c r="AF9" s="22" t="n"/>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/feathers_asd_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH9" s="22" t="n"/>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Ловец снов акварель</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="23">
-      <c r="F10" s="30" t="n"/>
-      <c r="G10" s="22" t="n"/>
-      <c r="U10" s="22" t="n"/>
-      <c r="W10" s="30" t="n"/>
-      <c r="Z10" s="22" t="n"/>
-      <c r="AC10" s="22" t="n"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка с галактической магией</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Девушка с галактической магией</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>349</v>
+      </c>
+      <c r="E10" t="n">
+        <v>524</v>
+      </c>
+      <c r="F10" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G10" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" t="n">
+        <v>210</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>300</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_eyes_magic_galaxy_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_eyes_magic_galaxy_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_eyes_magic_galaxy_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_eyes_magic_galaxy_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_eyes_magic_galaxy_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U10" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Девушка с галактической магией</t>
+        </is>
+      </c>
+      <c r="W10" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Девушка с галактической магией - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z10" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC10" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE10" s="22" t="n"/>
       <c r="AF10" s="22" t="n"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_eyes_magic_galaxy_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH10" s="22" t="n"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка с галактической магией</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="23">
-      <c r="F11" s="30" t="n"/>
-      <c r="G11" s="22" t="n"/>
-      <c r="U11" s="22" t="n"/>
-      <c r="W11" s="30" t="n"/>
-      <c r="Z11" s="22" t="n"/>
-      <c r="AC11" s="22" t="n"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка в цветах и золотом круге</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Девушка в цветах и золотом круге</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>524</v>
+      </c>
+      <c r="F11" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>210</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>300</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_flowers_sleeping_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_flowers_sleeping_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_flowers_sleeping_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_flowers_sleeping_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_flowers_sleeping_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U11" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Девушка в цветах и золотом круге</t>
+        </is>
+      </c>
+      <c r="W11" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Девушка в цветах и золотом круге - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z11" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC11" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE11" s="22" t="n"/>
       <c r="AF11" s="22" t="n"/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_flowers_sleeping_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH11" s="22" t="n"/>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка в цветах и золотом круге</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="23">
-      <c r="F12" s="30" t="n"/>
-      <c r="G12" s="22" t="n"/>
-      <c r="U12" s="22" t="n"/>
-      <c r="W12" s="30" t="n"/>
-      <c r="Z12" s="22" t="n"/>
-      <c r="AC12" s="22" t="n"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Королева с бокалом игральная карта</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Королева с бокалом игральная карта</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>349</v>
+      </c>
+      <c r="E12" t="n">
+        <v>524</v>
+      </c>
+      <c r="F12" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G12" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>210</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>300</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_wine_queen_pocker_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_wine_queen_pocker_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_wine_queen_pocker_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_wine_queen_pocker_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_wine_queen_pocker_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U12" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Королева с бокалом игральная карта</t>
+        </is>
+      </c>
+      <c r="W12" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Королева с бокалом игральная карта - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z12" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC12" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE12" s="22" t="n"/>
       <c r="AF12" s="22" t="n"/>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/girl_wine_queen_pocker_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH12" s="22" t="n"/>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Королева с бокалом игральная карта</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="23">
-      <c r="F13" s="30" t="n"/>
-      <c r="G13" s="22" t="n"/>
-      <c r="U13" s="22" t="n"/>
-      <c r="W13" s="30" t="n"/>
-      <c r="Z13" s="22" t="n"/>
-      <c r="AC13" s="22" t="n"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лошадь в космических красках</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Лошадь в космических красках</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>349</v>
+      </c>
+      <c r="E13" t="n">
+        <v>524</v>
+      </c>
+      <c r="F13" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G13" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" t="n">
+        <v>210</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>300</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_space_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_space_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_space_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_space_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_space_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U13" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Лошадь в космических красках</t>
+        </is>
+      </c>
+      <c r="W13" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Лошадь в космических красках - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z13" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC13" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE13" s="22" t="n"/>
       <c r="AF13" s="22" t="n"/>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_space_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH13" s="22" t="n"/>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Лошадь в космических красках</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="23">
-      <c r="F14" s="30" t="n"/>
-      <c r="G14" s="22" t="n"/>
-      <c r="U14" s="22" t="n"/>
-      <c r="W14" s="30" t="n"/>
-      <c r="Z14" s="22" t="n"/>
-      <c r="AC14" s="22" t="n"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Лошадь в золотых и мраморных тонах</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>349</v>
+      </c>
+      <c r="E14" t="n">
+        <v>524</v>
+      </c>
+      <c r="F14" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G14" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" t="n">
+        <v>210</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>300</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_white_gold_a_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_white_gold_a_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_white_gold_a_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_white_gold_a_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_white_gold_a_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U14" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Лошадь в золотых и мраморных тонах</t>
+        </is>
+      </c>
+      <c r="W14" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Лошадь в золотых и мраморных тонах - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z14" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC14" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE14" s="22" t="n"/>
       <c r="AF14" s="22" t="n"/>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/horse_white_gold_a_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH14" s="22" t="n"/>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Лошадь в золотых и мраморных тонах</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="23">
-      <c r="F15" s="30" t="n"/>
-      <c r="G15" s="22" t="n"/>
-      <c r="U15" s="22" t="n"/>
-      <c r="W15" s="30" t="n"/>
-      <c r="Z15" s="22" t="n"/>
-      <c r="AC15" s="22" t="n"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Термонаклейка Пара леопардов в ночной листве</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Пара леопардов в ночной листве</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>349</v>
+      </c>
+      <c r="E15" t="n">
+        <v>524</v>
+      </c>
+      <c r="F15" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G15" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" t="n">
+        <v>210</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>300</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/leopards_white_black_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/leopards_white_black_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/leopards_white_black_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/leopards_white_black_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/leopards_white_black_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U15" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Пара леопардов в ночной листве</t>
+        </is>
+      </c>
+      <c r="W15" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Пара леопардов в ночной листве - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z15" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC15" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE15" s="22" t="n"/>
       <c r="AF15" s="22" t="n"/>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/leopards_white_black_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH15" s="22" t="n"/>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Пара леопардов в ночной листве</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="23">
-      <c r="F16" s="30" t="n"/>
-      <c r="G16" s="22" t="n"/>
-      <c r="U16" s="22" t="n"/>
-      <c r="W16" s="30" t="n"/>
-      <c r="Z16" s="22" t="n"/>
-      <c r="AC16" s="22" t="n"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Золотой лев в изысканном узоре</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Золотой лев в изысканном узоре</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>349</v>
+      </c>
+      <c r="E16" t="n">
+        <v>524</v>
+      </c>
+      <c r="F16" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G16" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>210</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>300</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_gold_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_gold_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_gold_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_gold_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_gold_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U16" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Золотой лев в изысканном узоре</t>
+        </is>
+      </c>
+      <c r="W16" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Золотой лев в изысканном узоре - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z16" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC16" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE16" s="22" t="n"/>
       <c r="AF16" s="22" t="n"/>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_gold_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH16" s="22" t="n"/>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Золотой лев в изысканном узоре</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="23">
-      <c r="F17" s="30" t="n"/>
-      <c r="G17" s="22" t="n"/>
-      <c r="U17" s="22" t="n"/>
-      <c r="W17" s="30" t="n"/>
-      <c r="Z17" s="22" t="n"/>
-      <c r="AC17" s="22" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Термонаклейка Синий лев с золотыми акцентами</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Синий лев с золотыми акцентами</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>349</v>
+      </c>
+      <c r="E17" t="n">
+        <v>524</v>
+      </c>
+      <c r="F17" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G17" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>210</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>300</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U17" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Синий лев с золотыми акцентами</t>
+        </is>
+      </c>
+      <c r="W17" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Синий лев с золотыми акцентами - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z17" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC17" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE17" s="22" t="n"/>
       <c r="AF17" s="22" t="n"/>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/lion_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH17" s="22" t="n"/>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Синий лев с золотыми акцентами</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="23">
-      <c r="F18" s="30" t="n"/>
-      <c r="G18" s="22" t="n"/>
-      <c r="U18" s="22" t="n"/>
-      <c r="W18" s="30" t="n"/>
-      <c r="Z18" s="22" t="n"/>
-      <c r="AC18" s="22" t="n"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сова в цветах</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Сова в цветах</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>349</v>
+      </c>
+      <c r="E18" t="n">
+        <v>524</v>
+      </c>
+      <c r="F18" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" t="n">
+        <v>210</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>300</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/owl_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/owl_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/owl_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/owl_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/owl_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U18" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Сова в цветах</t>
+        </is>
+      </c>
+      <c r="W18" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Сова в цветах - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z18" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC18" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE18" s="22" t="n"/>
       <c r="AF18" s="22" t="n"/>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/owl_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH18" s="22" t="n"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сова в цветах</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="23">
-      <c r="F19" s="30" t="n"/>
-      <c r="G19" s="22" t="n"/>
-      <c r="U19" s="22" t="n"/>
-      <c r="W19" s="30" t="n"/>
-      <c r="Z19" s="22" t="n"/>
-      <c r="AC19" s="22" t="n"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Термонаклейка Карточная королева кричит</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Карточная королева кричит</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>349</v>
+      </c>
+      <c r="E19" t="n">
+        <v>524</v>
+      </c>
+      <c r="F19" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v/>
+      </c>
+      <c r="I19" t="n">
+        <v/>
+      </c>
+      <c r="J19" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" t="n">
+        <v>210</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>300</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/queen_pocker_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/queen_pocker_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/queen_pocker_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/queen_pocker_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/queen_pocker_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U19" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Карточная королева кричит</t>
+        </is>
+      </c>
+      <c r="W19" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Карточная королева кричит - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z19" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC19" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE19" s="22" t="n"/>
       <c r="AF19" s="22" t="n"/>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/queen_pocker_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH19" s="22" t="n"/>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Карточная королева кричит</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="23">
-      <c r="F20" s="30" t="n"/>
-      <c r="G20" s="22" t="n"/>
-      <c r="U20" s="22" t="n"/>
-      <c r="W20" s="30" t="n"/>
-      <c r="Z20" s="22" t="n"/>
-      <c r="AC20" s="22" t="n"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр с букетом жёлтых тюльпанов</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Тигр с букетом жёлтых тюльпанов</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>349</v>
+      </c>
+      <c r="E20" t="n">
+        <v>524</v>
+      </c>
+      <c r="F20" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G20" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v/>
+      </c>
+      <c r="I20" t="n">
+        <v/>
+      </c>
+      <c r="J20" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" t="n">
+        <v>210</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>300</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_flowers_happy_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_flowers_happy_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_flowers_happy_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_flowers_happy_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_flowers_happy_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U20" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Тигр с букетом жёлтых тюльпанов</t>
+        </is>
+      </c>
+      <c r="W20" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Тигр с букетом жёлтых тюльпанов - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z20" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC20" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE20" s="22" t="n"/>
       <c r="AF20" s="22" t="n"/>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_flowers_happy_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH20" s="22" t="n"/>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Тигр с букетом жёлтых тюльпанов</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="23">
-      <c r="F21" s="30" t="n"/>
-      <c r="G21" s="22" t="n"/>
-      <c r="U21" s="22" t="n"/>
-      <c r="W21" s="30" t="n"/>
-      <c r="Z21" s="22" t="n"/>
-      <c r="AC21" s="22" t="n"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр в витражном стиле</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Тигр в витражном стиле</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>349</v>
+      </c>
+      <c r="E21" t="n">
+        <v>524</v>
+      </c>
+      <c r="F21" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G21" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v/>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+      <c r="J21" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" t="n">
+        <v>210</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>300</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_glass_design_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_glass_design_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_glass_design_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_glass_design_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_glass_design_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U21" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Тигр в витражном стиле</t>
+        </is>
+      </c>
+      <c r="W21" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Тигр в витражном стиле - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z21" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC21" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE21" s="22" t="n"/>
       <c r="AF21" s="22" t="n"/>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_glass_design_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH21" s="22" t="n"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Тигр в витражном стиле</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="23">
-      <c r="F22" s="30" t="n"/>
-      <c r="G22" s="22" t="n"/>
-      <c r="U22" s="22" t="n"/>
-      <c r="W22" s="30" t="n"/>
-      <c r="Z22" s="22" t="n"/>
-      <c r="AC22" s="22" t="n"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр спит среди тропических цветов</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Тигр спит среди тропических цветов</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>349</v>
+      </c>
+      <c r="E22" t="n">
+        <v>524</v>
+      </c>
+      <c r="F22" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v/>
+      </c>
+      <c r="I22" t="n">
+        <v/>
+      </c>
+      <c r="J22" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" t="n">
+        <v>210</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>300</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_sleeping_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_sleeping_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_sleeping_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_sleeping_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_sleeping_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U22" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Тигр спит среди тропических цветов</t>
+        </is>
+      </c>
+      <c r="W22" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Тигр спит среди тропических цветов - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z22" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC22" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE22" s="22" t="n"/>
       <c r="AF22" s="22" t="n"/>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/tiger_sleeping_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH22" s="22" t="n"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Тигр спит среди тропических цветов</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="23">
-      <c r="F23" s="30" t="n"/>
-      <c r="G23" s="22" t="n"/>
-      <c r="U23" s="22" t="n"/>
-      <c r="W23" s="30" t="n"/>
-      <c r="Z23" s="22" t="n"/>
-      <c r="AC23" s="22" t="n"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит в голубых и розовых оттенках</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Кит в голубых и розовых оттенках</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>349</v>
+      </c>
+      <c r="E23" t="n">
+        <v>524</v>
+      </c>
+      <c r="F23" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G23" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v/>
+      </c>
+      <c r="I23" t="n">
+        <v/>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>210</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>300</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_a321_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_a321_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_a321_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_a321_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_a321_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U23" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Кит в голубых и розовых оттенках</t>
+        </is>
+      </c>
+      <c r="W23" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Кит в голубых и розовых оттенках - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z23" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC23" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE23" s="22" t="n"/>
       <c r="AF23" s="22" t="n"/>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_a321_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH23" s="22" t="n"/>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кит в голубых и розовых оттенках</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="12.8" customHeight="1" s="23">
-      <c r="F24" s="30" t="n"/>
-      <c r="G24" s="22" t="n"/>
-      <c r="U24" s="22" t="n"/>
-      <c r="W24" s="30" t="n"/>
-      <c r="Z24" s="22" t="n"/>
-      <c r="AC24" s="22" t="n"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит в золотом дизайне космос</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Кит в золотом дизайне космос</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>349</v>
+      </c>
+      <c r="E24" t="n">
+        <v>524</v>
+      </c>
+      <c r="F24" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G24" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v/>
+      </c>
+      <c r="I24" t="n">
+        <v/>
+      </c>
+      <c r="J24" t="n">
+        <v>10</v>
+      </c>
+      <c r="K24" t="n">
+        <v>210</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>300</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_gold_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_gold_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_gold_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_gold_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_gold_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U24" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Кит в золотом дизайне космос</t>
+        </is>
+      </c>
+      <c r="W24" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Кит в золотом дизайне космос - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z24" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC24" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE24" s="22" t="n"/>
       <c r="AF24" s="22" t="n"/>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_gold_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH24" s="22" t="n"/>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кит в золотом дизайне космос</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="23">
-      <c r="F25" s="30" t="n"/>
-      <c r="G25" s="22" t="n"/>
-      <c r="U25" s="22" t="n"/>
-      <c r="W25" s="30" t="n"/>
-      <c r="Z25" s="22" t="n"/>
-      <c r="AC25" s="22" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Термонаклейка Маленький принц на синем ките</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Маленький принц на синем ките</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>349</v>
+      </c>
+      <c r="E25" t="n">
+        <v>524</v>
+      </c>
+      <c r="F25" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G25" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v/>
+      </c>
+      <c r="I25" t="n">
+        <v/>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>210</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>300</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_with_little_prince_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_with_little_prince_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_with_little_prince_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_with_little_prince_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_with_little_prince_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U25" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Маленький принц на синем ките</t>
+        </is>
+      </c>
+      <c r="W25" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Маленький принц на синем ките - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z25" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC25" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE25" s="22" t="n"/>
       <c r="AF25" s="22" t="n"/>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/whale_with_little_prince_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH25" s="22" t="n"/>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Маленький принц на синем ките</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="23">
-      <c r="F26" s="30" t="n"/>
-      <c r="G26" s="22" t="n"/>
-      <c r="U26" s="22" t="n"/>
-      <c r="W26" s="30" t="n"/>
-      <c r="Z26" s="22" t="n"/>
-      <c r="AC26" s="22" t="n"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Термонаклейка Белый волк с цветами и узорами</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Белый волк с цветами и узорами</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>349</v>
+      </c>
+      <c r="E26" t="n">
+        <v>524</v>
+      </c>
+      <c r="F26" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G26" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v/>
+      </c>
+      <c r="I26" t="n">
+        <v/>
+      </c>
+      <c r="J26" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" t="n">
+        <v>210</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>300</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_girl_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_girl_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_girl_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_girl_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_girl_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U26" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Белый волк с цветами и узорами</t>
+        </is>
+      </c>
+      <c r="W26" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Белый волк с цветами и узорами - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z26" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC26" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE26" s="22" t="n"/>
       <c r="AF26" s="22" t="n"/>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_girl_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH26" s="22" t="n"/>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Белый волк с цветами и узорами</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" s="23">
-      <c r="F27" s="30" t="n"/>
-      <c r="G27" s="22" t="n"/>
-      <c r="U27" s="22" t="n"/>
-      <c r="W27" s="30" t="n"/>
-      <c r="Z27" s="22" t="n"/>
-      <c r="AC27" s="22" t="n"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрный волк красный луна</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Чёрный волк красный луна</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>349</v>
+      </c>
+      <c r="E27" t="n">
+        <v>524</v>
+      </c>
+      <c r="F27" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G27" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v/>
+      </c>
+      <c r="I27" t="n">
+        <v/>
+      </c>
+      <c r="J27" t="n">
+        <v>10</v>
+      </c>
+      <c r="K27" t="n">
+        <v>210</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>300</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_red_sun_vert_1.jpg</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_red_sun_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_red_sun_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_red_sun_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_red_sun_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Amazing Pics</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>DTF A5 set2</t>
+        </is>
+      </c>
+      <c r="U27" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Чёрный волк красный луна</t>
+        </is>
+      </c>
+      <c r="W27" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Термонаклейка Чёрный волк красный луна - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность.Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+</t>
+        </is>
+      </c>
+      <c r="Z27" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC27" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE27" s="22" t="n"/>
       <c r="AF27" s="22" t="n"/>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/wolf_red_sun_vert_color.jpg</t>
+        </is>
+      </c>
       <c r="AH27" s="22" t="n"/>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Чёрный волк красный луна</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="12.8" customHeight="1" s="23">
       <c r="F28" s="30" t="n"/>
@@ -18338,7 +20569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -18398,7 +20629,7 @@
     <row r="4" ht="13.8" customHeight="1" s="23">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме девочка в цветах и фонарях ночь</t>
+          <t>Термонаклейка Аниме девочка с мыльными пузырями</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -18408,7 +20639,398 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/Video_DTF.mp4</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка-кошка с чёрным котом поцелуй</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кошка розово-фиолетовая крупный план</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрный кот на закате у моря и цветов</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Термонаклейка Ловец снов акварель</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка с галактической магией</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка в цветах и золотом круге</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Королева с бокалом игральная карта</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лошадь в космических красках</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Термонаклейка Пара леопардов в ночной листве</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Золотой лев в изысканном узоре</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Термонаклейка Синий лев с золотыми акцентами</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сова в цветах</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Термонаклейка Карточная королева кричит</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр с букетом жёлтых тюльпанов</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр в витражном стиле</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр спит среди тропических цветов</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит в голубых и розовых оттенках</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит в золотом дизайне космос</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Термонаклейка Маленький принц на синем ките</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Термонаклейка Белый волк с цветами и узорами</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрный волк красный луна</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set5/Video_DTF.mp4</t>
         </is>
       </c>
     </row>
